--- a/画面項目定義/ホテルホテル画面項目定義.xlsx
+++ b/画面項目定義/ホテルホテル画面項目定義.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81707\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0080\グループ演習\group_project\画面項目定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62061EA7-D6C1-46BD-BF25-5EC9A646D27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D984B118-5125-4341-A6EE-317BEA48785D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F4FEA193-B733-4642-B52E-AEA9F0502C0A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{F4FEA193-B733-4642-B52E-AEA9F0502C0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,129 +80,45 @@
     <t>「登録情報更新」</t>
   </si>
   <si>
-    <r>
-      <t>「登録情報更新」ページ（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>hotel_updata.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）へ遷移</t>
-    </r>
-  </si>
-  <si>
     <t>プラン情報変更ボタン</t>
   </si>
   <si>
     <t>「プラン情報変更」</t>
   </si>
   <si>
-    <r>
-      <t>「プラン情報変更」ページ（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>hotel_plan.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）へ遷移</t>
-    </r>
-  </si>
-  <si>
     <t>部屋情報更新ボタン</t>
   </si>
   <si>
     <t>「部屋情報更新」</t>
   </si>
   <si>
-    <r>
-      <t>「部屋情報更新」ページ（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>hotel_room.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）へ遷移</t>
-    </r>
-  </si>
-  <si>
     <t>戻るボタン</t>
   </si>
   <si>
     <t>「戻る」</t>
   </si>
   <si>
-    <r>
-      <t>前のページ（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>hotel.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）へ遷移</t>
-    </r>
+    <t>「登録情報更新」ページへ遷移</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「プラン情報変更」ページへ遷移</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「部屋情報更新」ページへ遷移</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホテル情報更新メイン画面遷移</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,12 +135,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -603,12 +513,12 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="36">
+    <row r="1" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72">
+    <row r="2" spans="1:6" ht="70.5" x14ac:dyDescent="0.7">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -648,7 +558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="102.5">
+    <row r="3" spans="1:6" ht="70.5" x14ac:dyDescent="0.7">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -665,12 +575,12 @@
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="70.5" x14ac:dyDescent="0.7">
+      <c r="A4" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="126">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -679,18 +589,18 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="70.5" x14ac:dyDescent="0.7">
+      <c r="A5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="108">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -699,18 +609,18 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="90">
+    <row r="6" spans="1:6" ht="70.5" x14ac:dyDescent="0.7">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -719,7 +629,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
@@ -729,7 +639,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>